--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,13 +444,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.998987510733834</v>
+        <v>8.943567213078773E-15</v>
       </c>
       <c r="E2">
-        <v>0.998987510733834</v>
+        <v>8.943567213078773E-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999999925</v>
+        <v>0.9999997511863719</v>
       </c>
       <c r="E3">
-        <v>0.9999999999999925</v>
+        <v>0.9999997511863719</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.493546620490771E-06</v>
+        <v>5.00661137352761E-09</v>
       </c>
       <c r="E4">
-        <v>0.9999965064533796</v>
+        <v>0.9999999949933887</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9999999997108955</v>
+        <v>0.999999991577737</v>
       </c>
       <c r="E5">
-        <v>2.891045181030449E-10</v>
+        <v>8.422262998131202E-09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.041399456618364E-09</v>
+        <v>8.840944593218144E-14</v>
       </c>
       <c r="E6">
-        <v>0.9999999979586005</v>
+        <v>0.9999999999999116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9450078785866636</v>
+        <v>0.9995679070259491</v>
       </c>
       <c r="E7">
-        <v>0.05499212141333643</v>
+        <v>0.0004320929740508905</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999950100271</v>
+        <v>0.9999807855388351</v>
       </c>
       <c r="E8">
-        <v>4.989972879343441E-09</v>
+        <v>1.92144611649292E-05</v>
       </c>
       <c r="F8">
-        <v>10.29374408721924</v>
+        <v>9.196616172790527</v>
       </c>
       <c r="G8">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
